--- a/内部编号列表/[hack]Hard Rain+.xlsx
+++ b/内部编号列表/[hack]Hard Rain+.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="0.64 Debug" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="375">
   <si>
     <r>
       <rPr>
@@ -1401,6 +1401,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>M</t>
     </r>
     <r>
@@ -3209,6 +3215,28 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>子弹编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子弹名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>旗帜僵尸</t>
     </r>
   </si>
@@ -3220,6 +3248,50 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>豌豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒冰豌豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卷心菜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西瓜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>读报僵尸</t>
     </r>
   </si>
@@ -3231,6 +3303,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>孢子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>铁栅门僵尸</t>
     </r>
   </si>
@@ -3242,6 +3325,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>冰西瓜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>伴舞僵尸</t>
     </r>
   </si>
@@ -3253,6 +3347,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>针刺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>鸭子救生圈僵尸</t>
     </r>
   </si>
@@ -3264,6 +3369,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>篮球</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>潜水僵尸</t>
     </r>
   </si>
@@ -3275,6 +3391,28 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>玉米粒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉米棒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>雪橇僵尸小队</t>
     </r>
   </si>
@@ -3286,11 +3424,54 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>黄油</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>海豚骑士僵尸</t>
     </r>
   </si>
   <si>
     <r>
+      <t>未知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物会受伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -3301,6 +3482,47 @@
     </r>
   </si>
   <si>
+    <t>孢子</t>
+  </si>
+  <si>
+    <t>花瓣</t>
+  </si>
+  <si>
+    <t>毒液</t>
+  </si>
+  <si>
+    <r>
+      <t>孢子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击退效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3310,6 +3532,9 @@
       </rPr>
       <t>雪人僵尸</t>
     </r>
+  </si>
+  <si>
+    <t>寒冰玉米粒</t>
   </si>
   <si>
     <r>
@@ -3591,6 +3816,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3736,12 +3967,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -4092,10 +4317,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4104,34 +4329,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4143,94 +4365,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4253,13 +4478,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4592,22 +4817,22 @@
   <sheetPr/>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="G23" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3796296296296" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="16.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.8796296296296" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
     <col min="9" max="9" width="28.75" style="1" customWidth="1"/>
     <col min="10" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="20.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.3796296296296" style="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="18.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.8796296296296" style="1" customWidth="1"/>
     <col min="17" max="18" width="9" style="1"/>
     <col min="19" max="19" width="18" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
@@ -4629,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="L1" s="2"/>
-      <c r="M1" s="7"/>
+      <c r="M1" s="6"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -4671,7 +4896,7 @@
       <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -4727,7 +4952,7 @@
       <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -4736,7 +4961,7 @@
       <c r="O3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -4783,7 +5008,7 @@
       <c r="L4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -4792,7 +5017,7 @@
       <c r="O4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -4839,7 +5064,7 @@
       <c r="L5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>45</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -4848,7 +5073,7 @@
       <c r="O5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>48</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -4895,7 +5120,7 @@
       <c r="L6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>59</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -4904,7 +5129,7 @@
       <c r="O6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -4951,7 +5176,7 @@
       <c r="L7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>71</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -4960,7 +5185,7 @@
       <c r="O7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q7" s="2" t="s">
@@ -5007,7 +5232,7 @@
       <c r="L8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>83</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -5016,7 +5241,7 @@
       <c r="O8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="6" t="s">
         <v>86</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -5072,7 +5297,7 @@
       <c r="O9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="6" t="s">
         <v>98</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -5128,7 +5353,7 @@
       <c r="O10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="6" t="s">
         <v>110</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -5137,7 +5362,7 @@
       <c r="R10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5184,7 +5409,7 @@
       <c r="O11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="6" t="s">
         <v>121</v>
       </c>
       <c r="Q11" s="2" t="s">
@@ -5193,7 +5418,7 @@
       <c r="R11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5231,7 +5456,7 @@
       <c r="L12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>130</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -5240,7 +5465,7 @@
       <c r="O12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="6" t="s">
         <v>132</v>
       </c>
       <c r="Q12" s="2" t="s">
@@ -5249,7 +5474,7 @@
       <c r="R12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="S12" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5287,7 +5512,7 @@
       <c r="L13" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -5296,7 +5521,7 @@
       <c r="O13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="6" t="s">
         <v>143</v>
       </c>
       <c r="Q13" s="2" t="s">
@@ -5305,7 +5530,7 @@
       <c r="R13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5343,7 +5568,7 @@
       <c r="L14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>152</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -5352,7 +5577,7 @@
       <c r="O14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="6" t="s">
         <v>154</v>
       </c>
       <c r="Q14" s="2" t="s">
@@ -5361,7 +5586,7 @@
       <c r="R14" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5399,7 +5624,7 @@
       <c r="L15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>163</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -5408,7 +5633,7 @@
       <c r="O15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="6" t="s">
         <v>165</v>
       </c>
       <c r="Q15" s="2" t="s">
@@ -5417,7 +5642,7 @@
       <c r="R15" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="6" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5455,7 +5680,7 @@
       <c r="L16" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="6" t="s">
         <v>174</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -5473,7 +5698,7 @@
       <c r="R16" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" s="6" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5529,7 +5754,7 @@
       <c r="R17" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="S17" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5585,7 +5810,7 @@
       <c r="R18" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="S18" s="6" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5641,7 +5866,7 @@
       <c r="R19" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="S19" s="6" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5679,7 +5904,7 @@
       <c r="L20" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="6" t="s">
         <v>215</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -5697,7 +5922,7 @@
       <c r="R20" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="S20" s="7" t="s">
+      <c r="S20" s="6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5735,7 +5960,7 @@
       <c r="L21" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="6" t="s">
         <v>224</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -5753,7 +5978,7 @@
       <c r="R21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="S21" s="6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5791,7 +6016,7 @@
       <c r="L22" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="6" t="s">
         <v>233</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5809,7 +6034,7 @@
       <c r="R22" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="S22" s="6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5847,7 +6072,7 @@
       <c r="L23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="6" t="s">
         <v>241</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -5865,7 +6090,7 @@
       <c r="R23" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="S23" s="6" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5903,7 +6128,7 @@
       <c r="L24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="6" t="s">
         <v>249</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -5921,7 +6146,7 @@
       <c r="R24" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="S24" s="7" t="s">
+      <c r="S24" s="6" t="s">
         <v>253</v>
       </c>
     </row>
@@ -5977,7 +6202,7 @@
       <c r="R25" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="S25" s="6" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6033,7 +6258,7 @@
       <c r="R26" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="S26" s="7" t="s">
+      <c r="S26" s="6" t="s">
         <v>269</v>
       </c>
     </row>
@@ -6089,7 +6314,7 @@
       <c r="R27" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="S27" s="6" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6127,7 +6352,7 @@
       <c r="L28" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="6" t="s">
         <v>281</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -6145,7 +6370,7 @@
       <c r="R28" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="S28" s="7" t="s">
+      <c r="S28" s="6" t="s">
         <v>285</v>
       </c>
     </row>
@@ -6183,7 +6408,7 @@
       <c r="L29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="6" t="s">
         <v>290</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -6239,7 +6464,7 @@
       <c r="L30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="6" t="s">
         <v>300</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -6295,7 +6520,7 @@
       <c r="L31" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="6" t="s">
         <v>310</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -6342,7 +6567,7 @@
       <c r="L32" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="M32" s="6" t="s">
         <v>318</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -6371,7 +6596,7 @@
       <c r="L33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="M33" s="6" t="s">
         <v>323</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -6405,7 +6630,7 @@
       <c r="L34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="6" t="s">
         <v>326</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -6436,7 +6661,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" customHeight="1" spans="1:9">
+    <row r="36" customHeight="1" spans="1:13">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -6464,12 +6689,17 @@
       <c r="I36" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:9">
+      <c r="K36" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:13">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>0</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -6478,7 +6708,7 @@
       <c r="D37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>33</v>
       </c>
       <c r="F37" s="5" t="s">
@@ -6493,12 +6723,21 @@
       <c r="I37" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:9">
+      <c r="K37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:13">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -6507,7 +6746,7 @@
       <c r="D38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>34</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -6520,14 +6759,23 @@
         <v>30</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:9">
+        <v>332</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:13">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>2</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -6536,7 +6784,7 @@
       <c r="D39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>35</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -6551,12 +6799,21 @@
       <c r="I39" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:9">
+      <c r="K39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:13">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>3</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -6565,7 +6822,7 @@
       <c r="D40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>36</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -6580,12 +6837,21 @@
       <c r="I40" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:9">
+      <c r="K40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:13">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>4</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -6594,7 +6860,7 @@
       <c r="D41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>37</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -6609,12 +6875,21 @@
       <c r="I41" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:9">
+      <c r="K41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:13">
       <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>5</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -6623,7 +6898,7 @@
       <c r="D42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>38</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -6636,14 +6911,23 @@
         <v>82</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:9">
+        <v>337</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:13">
       <c r="A43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>6</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -6652,7 +6936,7 @@
       <c r="D43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>39</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -6665,14 +6949,23 @@
         <v>94</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:9">
+        <v>339</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:13">
       <c r="A44" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -6681,7 +6974,7 @@
       <c r="D44" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>40</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -6696,12 +6989,21 @@
       <c r="I44" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:9">
+      <c r="K44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:13">
       <c r="A45" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>8</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -6710,7 +7012,7 @@
       <c r="D45" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>41</v>
       </c>
       <c r="F45" s="5" t="s">
@@ -6725,12 +7027,21 @@
       <c r="I45" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:9">
+      <c r="K45" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:13">
       <c r="A46" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>9</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -6739,7 +7050,7 @@
       <c r="D46" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>42</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -6752,14 +7063,23 @@
         <v>129</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:9">
+        <v>341</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:13">
       <c r="A47" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>10</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -6768,7 +7088,7 @@
       <c r="D47" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>43</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -6781,14 +7101,23 @@
         <v>137</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:9">
+        <v>343</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:13">
       <c r="A48" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>11</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -6797,7 +7126,7 @@
       <c r="D48" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>44</v>
       </c>
       <c r="F48" s="5" t="s">
@@ -6810,14 +7139,23 @@
         <v>148</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:9">
+        <v>345</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:13">
       <c r="A49" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>12</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -6826,7 +7164,7 @@
       <c r="D49" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>45</v>
       </c>
       <c r="F49" s="5" t="s">
@@ -6841,12 +7179,21 @@
       <c r="I49" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:9">
+      <c r="K49" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:13">
       <c r="A50" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>13</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -6855,7 +7202,7 @@
       <c r="D50" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>46</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -6868,14 +7215,23 @@
         <v>170</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:9">
+        <v>348</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:13">
       <c r="A51" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>14</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -6884,7 +7240,7 @@
       <c r="D51" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>47</v>
       </c>
       <c r="F51" s="5" t="s">
@@ -6897,14 +7253,23 @@
         <v>181</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:9">
+        <v>350</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:13">
       <c r="A52" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>15</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -6913,7 +7278,7 @@
       <c r="D52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>48</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -6926,14 +7291,23 @@
         <v>192</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:9">
+        <v>352</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:13">
       <c r="A53" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>16</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -6942,7 +7316,7 @@
       <c r="D53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>49</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -6957,12 +7331,21 @@
       <c r="I53" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:9">
+      <c r="K53" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:13">
       <c r="A54" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>17</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -6971,7 +7354,7 @@
       <c r="D54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>50</v>
       </c>
       <c r="F54" s="5" t="s">
@@ -6986,12 +7369,21 @@
       <c r="I54" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:9">
+      <c r="K54" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:13">
       <c r="A55" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="5">
         <v>18</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -7000,7 +7392,7 @@
       <c r="D55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>51</v>
       </c>
       <c r="F55" s="5" t="s">
@@ -7015,12 +7407,21 @@
       <c r="I55" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:9">
+      <c r="K55" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:13">
       <c r="A56" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>19</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -7029,7 +7430,7 @@
       <c r="D56" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>52</v>
       </c>
       <c r="F56" s="5" t="s">
@@ -7042,14 +7443,23 @@
         <v>229</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:9">
+        <v>357</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:12">
       <c r="A57" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>20</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -7058,7 +7468,7 @@
       <c r="D57" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>53</v>
       </c>
       <c r="F57" s="5" t="s">
@@ -7073,12 +7483,14 @@
       <c r="I57" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:9">
+      <c r="K57"/>
+      <c r="L57"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:12">
       <c r="A58" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>21</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -7087,7 +7499,7 @@
       <c r="D58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>54</v>
       </c>
       <c r="F58" s="5" t="s">
@@ -7102,12 +7514,14 @@
       <c r="I58" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:9">
+      <c r="K58"/>
+      <c r="L58"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:12">
       <c r="A59" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>22</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -7116,7 +7530,7 @@
       <c r="D59" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>55</v>
       </c>
       <c r="F59" s="5" t="s">
@@ -7129,14 +7543,16 @@
         <v>46</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:9">
+        <v>359</v>
+      </c>
+      <c r="K59"/>
+      <c r="L59"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:12">
       <c r="A60" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <v>23</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -7145,7 +7561,7 @@
       <c r="D60" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>56</v>
       </c>
       <c r="F60" s="5" t="s">
@@ -7160,12 +7576,14 @@
       <c r="I60" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:9">
+      <c r="K60"/>
+      <c r="L60"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:12">
       <c r="A61" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>24</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -7174,7 +7592,7 @@
       <c r="D61" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>57</v>
       </c>
       <c r="F61" s="5" t="s">
@@ -7189,12 +7607,14 @@
       <c r="I61" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="K61"/>
+      <c r="L61"/>
     </row>
     <row r="62" customHeight="1" spans="1:9">
       <c r="A62" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>25</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -7203,7 +7623,7 @@
       <c r="D62" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>58</v>
       </c>
       <c r="F62" s="5" t="s">
@@ -7216,14 +7636,14 @@
         <v>84</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:9">
       <c r="A63" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>26</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -7232,7 +7652,7 @@
       <c r="D63" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>59</v>
       </c>
       <c r="F63" s="5" t="s">
@@ -7245,14 +7665,14 @@
         <v>96</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:9">
       <c r="A64" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <v>27</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -7261,7 +7681,7 @@
       <c r="D64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>60</v>
       </c>
       <c r="F64" s="5" t="s">
@@ -7274,14 +7694,14 @@
         <v>108</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:9">
       <c r="A65" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>28</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -7290,7 +7710,7 @@
       <c r="D65" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>61</v>
       </c>
       <c r="F65" s="5" t="s">
@@ -7303,14 +7723,14 @@
         <v>120</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:9">
       <c r="A66" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <v>29</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -7319,7 +7739,7 @@
       <c r="D66" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>62</v>
       </c>
       <c r="F66" s="5" t="s">
@@ -7332,14 +7752,14 @@
         <v>131</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:9">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <v>30</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -7348,7 +7768,7 @@
       <c r="D67" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>63</v>
       </c>
       <c r="F67" s="5" t="s">
@@ -7361,14 +7781,14 @@
         <v>9</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:9">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="5">
         <v>31</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -7377,7 +7797,7 @@
       <c r="D68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>64</v>
       </c>
       <c r="F68" s="5" t="s">
@@ -7390,14 +7810,14 @@
         <v>25</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:9">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <v>32</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -7406,7 +7826,7 @@
       <c r="D69" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <v>65</v>
       </c>
       <c r="F69" s="10" t="s">
@@ -7419,7 +7839,7 @@
         <v>17</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:9">
@@ -7436,7 +7856,7 @@
         <v>33</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:9">
@@ -7470,7 +7890,7 @@
         <v>61</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:9">
@@ -7487,7 +7907,7 @@
         <v>73</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:9">
@@ -7504,7 +7924,7 @@
         <v>85</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:9">
@@ -7521,7 +7941,7 @@
         <v>97</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:9">
@@ -7538,7 +7958,7 @@
         <v>109</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:9">
@@ -7555,7 +7975,7 @@
         <v>19</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="11:12">
@@ -7587,12 +8007,13 @@
       <c r="B105" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K36:M36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
